--- a/data/trans_orig/P34D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Estudios-trans_orig.xlsx
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,92%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>22,79%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>58,09%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,08%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>42,05%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>18,45%</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>25,53%</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,59%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,92%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>32,83%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,18%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>22,16%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>21,73%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>38,02%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>25,62%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -2432,12 +2432,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2543,12 +2543,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>27,07%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,19%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>32,42%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
         <v>780</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>893395</v>
+        <v>893394</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P34D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -684,17 +684,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -726,17 +726,17 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -753,17 +753,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -795,17 +795,17 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -864,17 +864,17 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,61%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -956,21 +956,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7497</v>
+        <v>7496</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -981,17 +981,17 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1029,38 +1029,38 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -1098,17 +1098,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1140,1767 +1140,2043 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>655</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>511360</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>94,44%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>92,19%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1414</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>818640</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>98,25%</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>94,52%</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99,31%</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>2069</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>96,75%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>94,41%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>97,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>30113</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="C12" s="2" t="n">
+        <v>690</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>541473</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1426</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>833191</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>2116</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>1374664</v>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>14551</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>44664</v>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Secundarios</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>14014</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>4179</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>18193</v>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>19098</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,31%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>8,05%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>9581</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>28679</v>
-      </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>116944</v>
+        <v>19098</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>39500</v>
+        <v>9581</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>156444</v>
+        <v>28679</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>52924</v>
+        <v>116944</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>17970</v>
+        <v>39500</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>70894</v>
+        <v>156444</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>128481</v>
+        <v>52924</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>34479</v>
+        <v>17970</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>162959</v>
+        <v>70894</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>69810</v>
+        <v>128481</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>24720</v>
+        <v>34478</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>94530</v>
+        <v>162960</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>41734</v>
+        <v>69810</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>11611</v>
+        <v>24720</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>53345</v>
+        <v>94530</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>328</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>443006</v>
+        <v>41734</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>142039</v>
+        <v>11611</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>585044</v>
+        <v>53345</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Universitarios</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>7</v>
+        <v>1664</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5999</v>
+        <v>1719016</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>7</v>
+        <v>2767</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>6188</v>
+        <v>2106075</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>14</v>
+        <v>4431</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>12187</v>
+        <v>3825092</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="n">
-        <v>6</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>10</v>
+        <v>1992</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>12150</v>
+        <v>2162022</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>2</v>
+        <v>2919</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>2094</v>
+        <v>2248114</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>12</v>
+        <v>4911</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>14245</v>
+        <v>4410136</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>22371</v>
+        <v>5999</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>20010</v>
+        <v>6188</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>42381</v>
+        <v>12187</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>30440</v>
+        <v>12150</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>10618</v>
+        <v>2094</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>41058</v>
+        <v>14244</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>54968</v>
+        <v>22371</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>27350</v>
+        <v>20010</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>82319</v>
+        <v>42381</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>30195</v>
+        <v>30440</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>22833</v>
+        <v>10618</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>53028</v>
+        <v>41058</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>4,3%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>14558</v>
+        <v>54969</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>3911</v>
+        <v>27350</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>18470</v>
+        <v>82319</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B27" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>170682</v>
+        <v>30195</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>93004</v>
+        <v>22833</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>263687</v>
+        <v>53028</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>23093</v>
+        <v>14558</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>3911</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>18470</v>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
           <t>2,32%</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>5,74%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>10875</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>33968</v>
-      </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>31</v>
+        <v>535</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>35957</v>
+        <v>502357</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>11</v>
+        <v>897</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>11675</v>
+        <v>620882</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>84,2%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>42</v>
+        <v>1432</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>47632</v>
+        <v>1123239</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>82,96%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="n">
-        <v>5</v>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>116</v>
+        <v>681</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>147230</v>
+        <v>673039</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>71</v>
+        <v>1004</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>60020</v>
+        <v>713886</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>187</v>
+        <v>1685</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>207250</v>
+        <v>1386926</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B31" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>83364</v>
+        <v>23093</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>36098</v>
+        <v>10875</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>119462</v>
+        <v>33968</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>190946</v>
+        <v>35957</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>65504</v>
+        <v>11675</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>256450</v>
+        <v>47632</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>102376</v>
+        <v>147230</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>49290</v>
+        <v>60020</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>151666</v>
+        <v>207250</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>60835</v>
+        <v>83364</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>16132</v>
+        <v>36098</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>76967</v>
+        <v>119462</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>190946</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>65504</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>256450</v>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>102376</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>49290</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>151666</v>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>60835</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>16132</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>76967</v>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>2854</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>2732733</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>80,93%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>79,25%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>82,67%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>5078</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>3545597</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>93,42%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>92,44%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>94,39%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>7932</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>6278330</v>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>87,54%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>86,52%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>88,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>509</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>643801</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>249594</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>780</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>893394</v>
-      </c>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C39" s="2" t="n">
+        <v>3363</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>3376534</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>5349</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>3795191</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>8712</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>7171725</v>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2908,13 +3184,13 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A30"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A31:A39"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
